--- a/pabi_budget_drilldown_report/xlsx_template/budget_project_base_report.xlsx
+++ b/pabi_budget_drilldown_report/xlsx_template/budget_project_base_report.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">Actual</t>
   </si>
   <si>
-    <t xml:space="preserve">Toal Spent</t>
+    <t xml:space="preserve">Total Spent</t>
   </si>
   <si>
     <t xml:space="preserve">Balance</t>
@@ -310,8 +310,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -379,7 +379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="8" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>

--- a/pabi_budget_drilldown_report/xlsx_template/budget_project_base_report.xlsx
+++ b/pabi_budget_drilldown_report/xlsx_template/budget_project_base_report.xlsx
@@ -310,8 +310,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pabi_budget_drilldown_report/xlsx_template/budget_project_base_report.xlsx
+++ b/pabi_budget_drilldown_report/xlsx_template/budget_project_base_report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t xml:space="preserve">Budget Project Report</t>
   </si>
@@ -31,6 +31,27 @@
     <t xml:space="preserve">Fiscal Year</t>
   </si>
   <si>
+    <t xml:space="preserve">Charge Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget Method</t>
+  </si>
+  <si>
     <t xml:space="preserve">Functional Area</t>
   </si>
   <si>
@@ -59,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">Activity Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge Type</t>
   </si>
   <si>
     <t xml:space="preserve">Activity</t>
@@ -370,68 +388,110 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="7" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="7" t="s">
+    </row>
+    <row r="20" s="8" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="D20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
+      <c r="L20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/pabi_budget_drilldown_report/xlsx_template/budget_project_base_report.xlsx
+++ b/pabi_budget_drilldown_report/xlsx_template/budget_project_base_report.xlsx
@@ -485,13 +485,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
